--- a/classification/droptc/sentence/modern-bert/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/52680723/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7739414572715759</v>
+        <v>0.3829022943973541</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3892816305160522</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5122612118721008</v>
+        <v>0.8823546171188354</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5378512740135193</v>
+        <v>0.746448278427124</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.539965033531189</v>
+        <v>0.975507915019989</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7025052309036255</v>
+        <v>0.798717200756073</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7834061980247498</v>
+        <v>0.6758292317390442</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4324766099452972</v>
+        <v>0.8838314414024353</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7420260906219482</v>
+        <v>0.6758292317390442</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3124528229236603</v>
+        <v>0.8247812986373901</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8266337513923645</v>
+        <v>0.8241729140281677</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8556470274925232</v>
+        <v>0.8349994421005249</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7197732329368591</v>
+        <v>0.8362024426460266</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3752165734767914</v>
+        <v>0.9315290451049805</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.527962327003479</v>
+        <v>0.9188960790634155</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7024145126342773</v>
+        <v>0.8206906914710999</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6310855150222778</v>
+        <v>0.7140738368034363</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5378512740135193</v>
+        <v>0.9872424602508545</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4746933579444885</v>
+        <v>0.8770532011985779</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.748996913433075</v>
+        <v>0.9966481328010559</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7335980534553528</v>
+        <v>0.8145617842674255</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7177478671073914</v>
+        <v>0.9870097637176514</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5872123241424561</v>
+        <v>0.9256821870803833</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6032499670982361</v>
+        <v>0.3435578346252441</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3346472382545471</v>
+        <v>0.4400441348552704</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.9749054312705994</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6576357483863831</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6860005259513855</v>
+        <v>0.6866924166679382</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5842345356941223</v>
+        <v>0.9345569014549255</v>
       </c>
     </row>
     <row r="31">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.623237669467926</v>
+        <v>0.8550946116447449</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.387337327003479</v>
+        <v>0.8820071816444397</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3136287331581116</v>
+        <v>0.6265222430229187</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.5430191159248352</v>
+        <v>0.9451398849487305</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6260930895805359</v>
+        <v>0.9753606915473938</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7928295135498047</v>
+        <v>0.9569666385650635</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2768023312091827</v>
+        <v>0.9789698719978333</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8596347570419312</v>
+        <v>0.9596002101898193</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8847347497940063</v>
+        <v>0.97897869348526</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2695731818675995</v>
+        <v>0.308977484703064</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.7359403371810913</v>
+        <v>0.9962610602378845</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.6109712719917297</v>
+        <v>0.5546814799308777</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8456889986991882</v>
+        <v>0.645641565322876</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.9191871881484985</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.7273421287536621</v>
+        <v>0.8899326324462891</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8327842950820923</v>
+        <v>0.9121503233909607</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5285325646400452</v>
+        <v>0.605118453502655</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8171634078025818</v>
+        <v>0.8546150922775269</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7303816080093384</v>
+        <v>0.9991801381111145</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.893157422542572</v>
+        <v>0.8947715759277344</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5650113224983215</v>
+        <v>0.643625795841217</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4121819734573364</v>
+        <v>0.9264314770698547</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3912897109985352</v>
+        <v>0.8947715759277344</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6252987384796143</v>
+        <v>0.6045203804969788</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4091377258300781</v>
+        <v>0.9964470267295837</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.6789669394493103</v>
+        <v>0.9977787137031555</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4862183630466461</v>
+        <v>0.9986055493354797</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3425010442733765</v>
+        <v>0.821747899055481</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3304745852947235</v>
+        <v>0.9843989610671997</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6489951610565186</v>
+        <v>0.9016978740692139</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8375011086463928</v>
+        <v>0.9661909341812134</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7616462707519531</v>
+        <v>0.8664587140083313</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.5977474451065063</v>
+        <v>0.8641072511672974</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7499411106109619</v>
+        <v>0.7286750078201294</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7352163195610046</v>
+        <v>0.91917884349823</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5806841254234314</v>
+        <v>0.91917884349823</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8519948720932007</v>
+        <v>0.778658390045166</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5786149501800537</v>
+        <v>0.91917884349823</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6085548996925354</v>
+        <v>0.6805103421211243</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5571413636207581</v>
+        <v>0.940998375415802</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.611528217792511</v>
+        <v>0.5737101435661316</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4317247569561005</v>
+        <v>0.9883153438568115</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5384575724601746</v>
+        <v>0.890114963054657</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.7505590319633484</v>
+        <v>0.7148584127426147</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7626501321792603</v>
+        <v>0.5920267701148987</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.6296141147613525</v>
+        <v>0.890114963054657</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5161855816841125</v>
+        <v>0.6399174928665161</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.5983482003211975</v>
+        <v>0.890114963054657</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6041678190231323</v>
+        <v>0.9943384528160095</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.387337327003479</v>
+        <v>0.4602965414524078</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.584164559841156</v>
+        <v>0.420866072177887</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.387337327003479</v>
+        <v>0.5800016522407532</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5428012609481812</v>
+        <v>0.8611361384391785</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.682929515838623</v>
+        <v>0.8611361384391785</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.295011579990387</v>
+        <v>0.9863547682762146</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5267266631126404</v>
+        <v>0.8863641619682312</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9310367703437805</v>
+        <v>0.9258671998977661</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4298470616340637</v>
+        <v>0.8150309920310974</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.7423487901687622</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6624776124954224</v>
+        <v>0.9813207983970642</v>
       </c>
     </row>
     <row r="91">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="E91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2727542817592621</v>
+        <v>0.9800670146942139</v>
       </c>
     </row>
     <row r="92">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3007,10 +3007,10 @@
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3147367537021637</v>
+        <v>0.9792750477790833</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.4106675684452057</v>
+        <v>0.9844659566879272</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8666659593582153</v>
+        <v>0.9828647375106812</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5200038552284241</v>
+        <v>0.9780566692352295</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4518632888793945</v>
+        <v>0.9845815300941467</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.3131835758686066</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6315922141075134</v>
+        <v>0.9875417351722717</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4324766099452972</v>
+        <v>0.9279165863990784</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2681601345539093</v>
+        <v>0.7434504628181458</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2727542817592621</v>
+        <v>0.9710044860839844</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6082080006599426</v>
+        <v>0.5144362449645996</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7359719276428223</v>
+        <v>0.5434531569480896</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5429422855377197</v>
+        <v>0.8227334022521973</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7957578301429749</v>
+        <v>0.9404783844947815</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.620395302772522</v>
+        <v>0.9450434446334839</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.804398775100708</v>
+        <v>0.4732754230499268</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7277981638908386</v>
+        <v>0.5833808779716492</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4910025596618652</v>
+        <v>0.9547585844993591</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8539614081382751</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9433611631393433</v>
+        <v>0.7081418037414551</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3300082087516785</v>
+        <v>0.6444798707962036</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.295011579990387</v>
+        <v>0.886452317237854</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.9753647446632385</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.7413498759269714</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7347055077552795</v>
+        <v>0.4199881553649902</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.295011579990387</v>
+        <v>0.8170262575149536</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7717399001121521</v>
+        <v>0.4511843025684357</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.7743528485298157</v>
+        <v>0.6924088001251221</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5599707961082458</v>
+        <v>0.8007436990737915</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.7240405678749084</v>
+        <v>0.9619739651679993</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8128331303596497</v>
+        <v>0.8007436990737915</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7526897192001343</v>
+        <v>0.9619739651679993</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3043199181556702</v>
+        <v>0.8007436990737915</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.8550311326980591</v>
+        <v>0.9959859251976013</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6429230570793152</v>
+        <v>0.2696081399917603</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6170664429664612</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4868608117103577</v>
+        <v>0.6975371241569519</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5033703446388245</v>
+        <v>0.4707542955875397</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8814180493354797</v>
+        <v>0.9875336885452271</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6041678190231323</v>
+        <v>0.6908622980117798</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4168035686016083</v>
+        <v>0.9424461722373962</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.828112781047821</v>
+        <v>0.4598886370658875</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3566557466983795</v>
+        <v>0.9933362007141113</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.7657994031906128</v>
+        <v>0.8573952913284302</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7310455441474915</v>
+        <v>0.9849637150764465</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4420933425426483</v>
+        <v>0.8241068124771118</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5757390856742859</v>
+        <v>0.9875263571739197</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6023475527763367</v>
+        <v>0.9940162897109985</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6142387986183167</v>
+        <v>0.777418851852417</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2715873718261719</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9349117875099182</v>
+        <v>0.3886837363243103</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.576410710811615</v>
+        <v>0.9721809029579163</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4246053993701935</v>
+        <v>0.3886837363243103</v>
       </c>
     </row>
     <row r="146">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3577193319797516</v>
+        <v>0.9538154006004333</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.6463126540184021</v>
+        <v>0.6805103421211243</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5872123241424561</v>
+        <v>0.9229803085327148</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4527837038040161</v>
+        <v>0.8462454676628113</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7353390455245972</v>
+        <v>0.3941645920276642</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6695565581321716</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4324766099452972</v>
+        <v>0.4616932570934296</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.603211522102356</v>
+        <v>0.980523943901062</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.7575262784957886</v>
+        <v>0.7639245986938477</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4698938429355621</v>
+        <v>0.9954530000686646</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.7574892044067383</v>
+        <v>0.5643889904022217</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7371014952659607</v>
+        <v>0.9944450259208679</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4162766933441162</v>
+        <v>0.719205915927887</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5866604447364807</v>
+        <v>0.9976404905319214</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.4904905557632446</v>
+        <v>0.6261686682701111</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4246053993701935</v>
+        <v>0.9891629219055176</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.631835401058197</v>
+        <v>0.9595274329185486</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5753288269042969</v>
+        <v>0.8485563993453979</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6995704174041748</v>
+        <v>0.6021561026573181</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6309308409690857</v>
+        <v>0.9905608296394348</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7751219868659973</v>
+        <v>0.9057684540748596</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8772761225700378</v>
+        <v>0.6617289185523987</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.4556774497032166</v>
+        <v>0.5857780575752258</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.3043199181556702</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5384950041770935</v>
+        <v>0.6617289185523987</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6476780772209167</v>
+        <v>0.7097442150115967</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.7234326004981995</v>
+        <v>0.9995113611221313</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7326263189315796</v>
+        <v>0.8997625708580017</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.7859300374984741</v>
+        <v>0.9273000955581665</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7438830137252808</v>
+        <v>0.8997625708580017</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4461100995540619</v>
+        <v>0.8302617073059082</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6979801654815674</v>
+        <v>0.9273000955581665</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.3912897109985352</v>
+        <v>0.8606999516487122</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.553835391998291</v>
+        <v>0.9858940839767456</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.5506389737129211</v>
+        <v>0.9533643126487732</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.7660156488418579</v>
+        <v>0.6722355484962463</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.8772761225700378</v>
+        <v>0.96659255027771</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7284696102142334</v>
+        <v>0.4006959497928619</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8300065994262695</v>
+        <v>0.9992163181304932</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8005702495574951</v>
+        <v>0.9643282890319824</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2378669381141663</v>
+        <v>0.9642500281333923</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.863680899143219</v>
+        <v>0.9745942950248718</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.4995402693748474</v>
+        <v>0.9668958783149719</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.5170186758041382</v>
+        <v>0.9709239602088928</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5933895707130432</v>
+        <v>0.9750607013702393</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3621565401554108</v>
+        <v>0.429367870092392</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4137534499168396</v>
+        <v>0.958173394203186</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.5806841254234314</v>
+        <v>0.9545996189117432</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7178627848625183</v>
+        <v>0.882532000541687</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.3632146120071411</v>
+        <v>0.6265100240707397</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.2906618118286133</v>
+        <v>0.9988732933998108</v>
       </c>
     </row>
     <row r="197">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.7917308211326599</v>
+        <v>0.8068773746490479</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5582233071327209</v>
+        <v>0.527083694934845</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7469411492347717</v>
+        <v>0.9230391979217529</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3226771056652069</v>
+        <v>0.8623408675193787</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5150728225708008</v>
+        <v>0.9973083734512329</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.6117743253707886</v>
+        <v>0.9794859886169434</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8011276125907898</v>
+        <v>0.7843332290649414</v>
       </c>
     </row>
     <row r="204">
@@ -6139,14 +6139,14 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.61952143907547</v>
+        <v>0.400273323059082</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.6948785185813904</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7870283722877502</v>
+        <v>0.9943406581878662</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.3309069275856018</v>
+        <v>0.4620620906352997</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8900401592254639</v>
+        <v>0.9607217311859131</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7384947538375854</v>
+        <v>0.4094061851501465</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.6312428116798401</v>
+        <v>0.9993168115615845</v>
       </c>
     </row>
   </sheetData>
